--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Timp3-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Timp3-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Timp3</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>91.20678233333335</v>
+        <v>68.88366733333334</v>
       </c>
       <c r="H2">
-        <v>273.620347</v>
+        <v>206.651002</v>
       </c>
       <c r="I2">
-        <v>0.6532435006323183</v>
+        <v>0.5393713802555014</v>
       </c>
       <c r="J2">
-        <v>0.6532435006323182</v>
+        <v>0.5393713802555014</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N2">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O2">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P2">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q2">
-        <v>12965.80413480052</v>
+        <v>8198.286150733378</v>
       </c>
       <c r="R2">
-        <v>116692.2372132047</v>
+        <v>73784.5753566004</v>
       </c>
       <c r="S2">
-        <v>0.6206323115329726</v>
+        <v>0.4949421733257077</v>
       </c>
       <c r="T2">
-        <v>0.6206323115329725</v>
+        <v>0.4949421733257077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>91.20678233333335</v>
+        <v>68.88366733333334</v>
       </c>
       <c r="H3">
-        <v>273.620347</v>
+        <v>206.651002</v>
       </c>
       <c r="I3">
-        <v>0.6532435006323183</v>
+        <v>0.5393713802555014</v>
       </c>
       <c r="J3">
-        <v>0.6532435006323182</v>
+        <v>0.5393713802555014</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O3">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P3">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q3">
-        <v>20.77073335659545</v>
+        <v>15.68703829037711</v>
       </c>
       <c r="R3">
-        <v>186.936600209359</v>
+        <v>141.183344613394</v>
       </c>
       <c r="S3">
-        <v>0.0009942297539987622</v>
+        <v>0.0009470487711371599</v>
       </c>
       <c r="T3">
-        <v>0.0009942297539987618</v>
+        <v>0.0009470487711371598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>91.20678233333335</v>
+        <v>68.88366733333334</v>
       </c>
       <c r="H4">
-        <v>273.620347</v>
+        <v>206.651002</v>
       </c>
       <c r="I4">
-        <v>0.6532435006323183</v>
+        <v>0.5393713802555014</v>
       </c>
       <c r="J4">
-        <v>0.6532435006323182</v>
+        <v>0.5393713802555014</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N4">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O4">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P4">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q4">
-        <v>417.4003603923488</v>
+        <v>538.415500822423</v>
       </c>
       <c r="R4">
-        <v>3756.603243531139</v>
+        <v>4845.739507401808</v>
       </c>
       <c r="S4">
-        <v>0.01997964397824716</v>
+        <v>0.03250490812710424</v>
       </c>
       <c r="T4">
-        <v>0.01997964397824715</v>
+        <v>0.03250490812710423</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>91.20678233333335</v>
+        <v>68.88366733333334</v>
       </c>
       <c r="H5">
-        <v>273.620347</v>
+        <v>206.651002</v>
       </c>
       <c r="I5">
-        <v>0.6532435006323183</v>
+        <v>0.5393713802555014</v>
       </c>
       <c r="J5">
-        <v>0.6532435006323182</v>
+        <v>0.5393713802555014</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N5">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O5">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P5">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q5">
-        <v>12.11429764533878</v>
+        <v>7.23588483503</v>
       </c>
       <c r="R5">
-        <v>109.028678808049</v>
+        <v>65.12296351527</v>
       </c>
       <c r="S5">
-        <v>0.000579873370911501</v>
+        <v>0.0004368406396578276</v>
       </c>
       <c r="T5">
-        <v>0.0005798733709115009</v>
+        <v>0.0004368406396578276</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>91.20678233333335</v>
+        <v>68.88366733333334</v>
       </c>
       <c r="H6">
-        <v>273.620347</v>
+        <v>206.651002</v>
       </c>
       <c r="I6">
-        <v>0.6532435006323183</v>
+        <v>0.5393713802555014</v>
       </c>
       <c r="J6">
-        <v>0.6532435006323182</v>
+        <v>0.5393713802555014</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N6">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O6">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P6">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q6">
-        <v>231.0041299660539</v>
+        <v>174.5927039516238</v>
       </c>
       <c r="R6">
-        <v>2079.037169694485</v>
+        <v>1571.334335564614</v>
       </c>
       <c r="S6">
-        <v>0.01105744199618831</v>
+        <v>0.01054040939189448</v>
       </c>
       <c r="T6">
-        <v>0.01105744199618831</v>
+        <v>0.01054040939189448</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>83.91591700000001</v>
       </c>
       <c r="I7">
-        <v>0.2003415607825798</v>
+        <v>0.2190255239009008</v>
       </c>
       <c r="J7">
-        <v>0.2003415607825797</v>
+        <v>0.2190255239009008</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N7">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O7">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P7">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q7">
-        <v>3976.448957628787</v>
+        <v>3329.123466660915</v>
       </c>
       <c r="R7">
-        <v>35788.04061865908</v>
+        <v>29962.11119994823</v>
       </c>
       <c r="S7">
-        <v>0.1903401194872363</v>
+        <v>0.2009839097542808</v>
       </c>
       <c r="T7">
-        <v>0.1903401194872363</v>
+        <v>0.2009839097542808</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>83.91591700000001</v>
       </c>
       <c r="I8">
-        <v>0.2003415607825798</v>
+        <v>0.2190255239009008</v>
       </c>
       <c r="J8">
-        <v>0.2003415607825797</v>
+        <v>0.2190255239009008</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O8">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P8">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q8">
         <v>6.370122527405446</v>
@@ -948,10 +948,10 @@
         <v>57.33110274664901</v>
       </c>
       <c r="S8">
-        <v>0.0003049177534866972</v>
+        <v>0.0003845733400978037</v>
       </c>
       <c r="T8">
-        <v>0.0003049177534866971</v>
+        <v>0.0003845733400978036</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>83.91591700000001</v>
       </c>
       <c r="I9">
-        <v>0.2003415607825798</v>
+        <v>0.2190255239009008</v>
       </c>
       <c r="J9">
-        <v>0.2003415607825797</v>
+        <v>0.2190255239009008</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N9">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O9">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P9">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q9">
-        <v>128.0114376817687</v>
+        <v>218.6373646449965</v>
       </c>
       <c r="R9">
-        <v>1152.102939135918</v>
+        <v>1967.736281804968</v>
       </c>
       <c r="S9">
-        <v>0.006127505370673834</v>
+        <v>0.01319944808439257</v>
       </c>
       <c r="T9">
-        <v>0.006127505370673832</v>
+        <v>0.01319944808439256</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>83.91591700000001</v>
       </c>
       <c r="I10">
-        <v>0.2003415607825798</v>
+        <v>0.2190255239009008</v>
       </c>
       <c r="J10">
-        <v>0.2003415607825797</v>
+        <v>0.2190255239009008</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N10">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O10">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P10">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q10">
-        <v>3.715302633248779</v>
+        <v>2.938315833755</v>
       </c>
       <c r="R10">
-        <v>33.437723699239</v>
+        <v>26.444842503795</v>
       </c>
       <c r="S10">
-        <v>0.0001778398653369142</v>
+        <v>0.0001773902981595665</v>
       </c>
       <c r="T10">
-        <v>0.0001778398653369141</v>
+        <v>0.0001773902981595665</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>83.91591700000001</v>
       </c>
       <c r="I11">
-        <v>0.2003415607825798</v>
+        <v>0.2190255239009008</v>
       </c>
       <c r="J11">
-        <v>0.2003415607825797</v>
+        <v>0.2190255239009008</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N11">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O11">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P11">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q11">
-        <v>70.84605954720389</v>
+        <v>70.89782634400213</v>
       </c>
       <c r="R11">
-        <v>637.6145359248351</v>
+        <v>638.0804370960191</v>
       </c>
       <c r="S11">
-        <v>0.003391178305845992</v>
+        <v>0.004280202423970041</v>
       </c>
       <c r="T11">
-        <v>0.003391178305845991</v>
+        <v>0.004280202423970041</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.442661</v>
+        <v>30.64425733333333</v>
       </c>
       <c r="H12">
-        <v>61.327983</v>
+        <v>91.932772</v>
       </c>
       <c r="I12">
-        <v>0.146414938585102</v>
+        <v>0.2399499912628263</v>
       </c>
       <c r="J12">
-        <v>0.146414938585102</v>
+        <v>0.2399499912628263</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N12">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O12">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P12">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q12">
-        <v>2906.094609844113</v>
+        <v>3647.169208916438</v>
       </c>
       <c r="R12">
-        <v>26154.85148859701</v>
+        <v>32824.52288024794</v>
       </c>
       <c r="S12">
-        <v>0.1391056194038992</v>
+        <v>0.2201847827165956</v>
       </c>
       <c r="T12">
-        <v>0.1391056194038992</v>
+        <v>0.2201847827165956</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.442661</v>
+        <v>30.64425733333333</v>
       </c>
       <c r="H13">
-        <v>61.327983</v>
+        <v>91.932772</v>
       </c>
       <c r="I13">
-        <v>0.146414938585102</v>
+        <v>0.2399499912628263</v>
       </c>
       <c r="J13">
-        <v>0.146414938585102</v>
+        <v>0.2399499912628263</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O13">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P13">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q13">
-        <v>4.655454889072333</v>
+        <v>6.978688225787111</v>
       </c>
       <c r="R13">
-        <v>41.899094001651</v>
+        <v>62.808194032084</v>
       </c>
       <c r="S13">
-        <v>0.0002228420003112205</v>
+        <v>0.0004213133152377974</v>
       </c>
       <c r="T13">
-        <v>0.0002228420003112204</v>
+        <v>0.0004213133152377974</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.442661</v>
+        <v>30.64425733333333</v>
       </c>
       <c r="H14">
-        <v>61.327983</v>
+        <v>91.932772</v>
       </c>
       <c r="I14">
-        <v>0.146414938585102</v>
+        <v>0.2399499912628263</v>
       </c>
       <c r="J14">
-        <v>0.146414938585102</v>
+        <v>0.2399499912628263</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N14">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O14">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P14">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q14">
-        <v>93.554161768298</v>
+        <v>239.5247494535431</v>
       </c>
       <c r="R14">
-        <v>841.987455914682</v>
+        <v>2155.722745081888</v>
       </c>
       <c r="S14">
-        <v>0.004478143821095269</v>
+        <v>0.01446044915731897</v>
       </c>
       <c r="T14">
-        <v>0.004478143821095269</v>
+        <v>0.01446044915731897</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.442661</v>
+        <v>30.64425733333333</v>
       </c>
       <c r="H15">
-        <v>61.327983</v>
+        <v>91.932772</v>
       </c>
       <c r="I15">
-        <v>0.146414938585102</v>
+        <v>0.2399499912628263</v>
       </c>
       <c r="J15">
-        <v>0.146414938585102</v>
+        <v>0.2399499912628263</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N15">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O15">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P15">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q15">
-        <v>2.715241933562333</v>
+        <v>3.21902601158</v>
       </c>
       <c r="R15">
-        <v>24.437177402061</v>
+        <v>28.97123410422</v>
       </c>
       <c r="S15">
-        <v>0.0001299701013587751</v>
+        <v>0.0001943371700951018</v>
       </c>
       <c r="T15">
-        <v>0.0001299701013587751</v>
+        <v>0.0001943371700951018</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>30.64425733333333</v>
+      </c>
+      <c r="H16">
+        <v>91.932772</v>
+      </c>
+      <c r="I16">
+        <v>0.2399499912628263</v>
+      </c>
+      <c r="J16">
+        <v>0.2399499912628263</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.534602333333333</v>
+      </c>
+      <c r="N16">
+        <v>7.603807</v>
+      </c>
+      <c r="O16">
+        <v>0.01954202573169801</v>
+      </c>
+      <c r="P16">
+        <v>0.01954202573169801</v>
+      </c>
+      <c r="Q16">
+        <v>77.67100614033377</v>
+      </c>
+      <c r="R16">
+        <v>699.039055263004</v>
+      </c>
+      <c r="S16">
+        <v>0.004689108903578865</v>
+      </c>
+      <c r="T16">
+        <v>0.004689108903578865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2111196666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.633359</v>
+      </c>
+      <c r="I17">
+        <v>0.001653104580771614</v>
+      </c>
+      <c r="J17">
+        <v>0.001653104580771615</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>119.0164006666667</v>
+      </c>
+      <c r="N17">
+        <v>357.049202</v>
+      </c>
+      <c r="O17">
+        <v>0.9176278005170622</v>
+      </c>
+      <c r="P17">
+        <v>0.9176278005170622</v>
+      </c>
+      <c r="Q17">
+        <v>25.12670283661311</v>
+      </c>
+      <c r="R17">
+        <v>226.140325529518</v>
+      </c>
+      <c r="S17">
+        <v>0.001516934720478137</v>
+      </c>
+      <c r="T17">
+        <v>0.001516934720478137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.2111196666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.633359</v>
+      </c>
+      <c r="I18">
+        <v>0.001653104580771614</v>
+      </c>
+      <c r="J18">
+        <v>0.001653104580771615</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.2277323333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.6831970000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.001755838010330732</v>
+      </c>
+      <c r="P18">
+        <v>0.001755838010330731</v>
+      </c>
+      <c r="Q18">
+        <v>0.04807877430255556</v>
+      </c>
+      <c r="R18">
+        <v>0.432708968723</v>
+      </c>
+      <c r="S18">
+        <v>2.90258385797065E-06</v>
+      </c>
+      <c r="T18">
+        <v>2.90258385797065E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>20.442661</v>
-      </c>
-      <c r="H16">
-        <v>61.327983</v>
-      </c>
-      <c r="I16">
-        <v>0.146414938585102</v>
-      </c>
-      <c r="J16">
-        <v>0.146414938585102</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.532751666666667</v>
-      </c>
-      <c r="N16">
-        <v>7.598255</v>
-      </c>
-      <c r="O16">
-        <v>0.01692698356047181</v>
-      </c>
-      <c r="P16">
-        <v>0.01692698356047181</v>
-      </c>
-      <c r="Q16">
-        <v>51.77618371885166</v>
-      </c>
-      <c r="R16">
-        <v>465.985653469665</v>
-      </c>
-      <c r="S16">
-        <v>0.002478363258437511</v>
-      </c>
-      <c r="T16">
-        <v>0.002478363258437511</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.2111196666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.633359</v>
+      </c>
+      <c r="I19">
+        <v>0.001653104580771614</v>
+      </c>
+      <c r="J19">
+        <v>0.001653104580771615</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>7.816301333333333</v>
+      </c>
+      <c r="N19">
+        <v>23.448904</v>
+      </c>
+      <c r="O19">
+        <v>0.06026442877207647</v>
+      </c>
+      <c r="P19">
+        <v>0.06026442877207646</v>
+      </c>
+      <c r="Q19">
+        <v>1.650174932059556</v>
+      </c>
+      <c r="R19">
+        <v>14.851574388536</v>
+      </c>
+      <c r="S19">
+        <v>9.962340326070429E-05</v>
+      </c>
+      <c r="T19">
+        <v>9.962340326070429E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.2111196666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.633359</v>
+      </c>
+      <c r="I20">
+        <v>0.001653104580771614</v>
+      </c>
+      <c r="J20">
+        <v>0.001653104580771615</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.105045</v>
+      </c>
+      <c r="N20">
+        <v>0.315135</v>
+      </c>
+      <c r="O20">
+        <v>0.000809906968832672</v>
+      </c>
+      <c r="P20">
+        <v>0.000809906968832672</v>
+      </c>
+      <c r="Q20">
+        <v>0.022177065385</v>
+      </c>
+      <c r="R20">
+        <v>0.199593588465</v>
+      </c>
+      <c r="S20">
+        <v>1.338860920176143E-06</v>
+      </c>
+      <c r="T20">
+        <v>1.338860920176143E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2111196666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.633359</v>
+      </c>
+      <c r="I21">
+        <v>0.001653104580771614</v>
+      </c>
+      <c r="J21">
+        <v>0.001653104580771615</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.534602333333333</v>
+      </c>
+      <c r="N21">
+        <v>7.603807</v>
+      </c>
+      <c r="O21">
+        <v>0.01954202573169801</v>
+      </c>
+      <c r="P21">
+        <v>0.01954202573169801</v>
+      </c>
+      <c r="Q21">
+        <v>0.535104399745889</v>
+      </c>
+      <c r="R21">
+        <v>4.815939597713</v>
+      </c>
+      <c r="S21">
+        <v>3.230501225462675E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.230501225462675E-05</v>
       </c>
     </row>
   </sheetData>
